--- a/biology/Médecine/Trichuris_trichiura/Trichuris_trichiura.xlsx
+++ b/biology/Médecine/Trichuris_trichiura/Trichuris_trichiura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trichuris trichiura, ou Trichocephalus trichiuris, est une espèce de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire).  C'est l'un des parasites du tube digestif humain, dont des œufs fossilisés sont encore trouvés sur des lieux de fouilles archéologiques préhistoriques[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trichuris trichiura, ou Trichocephalus trichiuris, est une espèce de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire).  C'est l'un des parasites du tube digestif humain, dont des œufs fossilisés sont encore trouvés sur des lieux de fouilles archéologiques préhistoriques. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce ver est responsable de la trichocéphalose chez l’Homme. 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un nématode de 3 à 5 cm de long. 
 </t>
@@ -573,9 +589,11 @@
           <t>Aire de répartition, prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cosmopolite, il infecterait plus d’un milliard de personnes, dont 220 millions seraient gravement atteintes et 10 000 décèderaient chaque année, selon l’OMS[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cosmopolite, il infecterait plus d’un milliard de personnes, dont 220 millions seraient gravement atteintes et 10 000 décèderaient chaque année, selon l’OMS.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Détection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parasite peut être mis en évidence par un examen parasitologique des selles chez le sujet infesté.
 </t>
@@ -635,9 +655,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parasite peut être traité par l’administration d'une dose unique d'oxantel[3]. L'association oxantel et albendazole pourrait être plus efficace[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parasite peut être traité par l’administration d'une dose unique d'oxantel. L'association oxantel et albendazole pourrait être plus efficace.
 </t>
         </is>
       </c>
